--- a/main/kdl-ihe-typecode.xlsx
+++ b/main/kdl-ihe-typecode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1077">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2025.0.1</t>
+    <t>2026.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-01</t>
+    <t>2026-01-01</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,7 +94,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>2025 DVMD e.V.</t>
+    <t>2026 DVMD e.V.</t>
   </si>
   <si>
     <t>Source</t>
@@ -844,6 +844,12 @@
     <t>Patientenbild</t>
   </si>
   <si>
+    <t>AM160114</t>
+  </si>
+  <si>
+    <t>Anästhesieausweis</t>
+  </si>
+  <si>
     <t>AM160199</t>
   </si>
   <si>
@@ -1318,6 +1324,12 @@
     <t>Checkliste bildgebende Diagnostik</t>
   </si>
   <si>
+    <t>DG020116</t>
+  </si>
+  <si>
+    <t>Zugangscode Bildportal</t>
+  </si>
+  <si>
     <t>DG020199</t>
   </si>
   <si>
@@ -2684,6 +2696,12 @@
   </si>
   <si>
     <t>IPSS (Internationaler Prostata Symptom Score)</t>
+  </si>
+  <si>
+    <t>VL010109</t>
+  </si>
+  <si>
+    <t>Sepsisdokumentation</t>
   </si>
   <si>
     <t>VL010199</t>
@@ -3503,7 +3521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E450"/>
+  <dimension ref="A1:E453"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5339,10 +5357,10 @@
         <v>37</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>229</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109">
@@ -5356,10 +5374,10 @@
         <v>37</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110">
@@ -5373,27 +5391,27 @@
         <v>37</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>283</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D111" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="E111" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D111" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="E111" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="112">
@@ -5407,10 +5425,10 @@
         <v>37</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113">
@@ -5424,10 +5442,10 @@
         <v>37</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>141</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114">
@@ -5492,27 +5510,27 @@
         <v>37</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>298</v>
+        <v>140</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>299</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D118" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="E118" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D118" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="E118" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="119">
@@ -5526,10 +5544,10 @@
         <v>37</v>
       </c>
       <c r="D119" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120">
@@ -5543,10 +5561,10 @@
         <v>37</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E120" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121">
@@ -5560,10 +5578,10 @@
         <v>37</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E121" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122">
@@ -5577,10 +5595,10 @@
         <v>37</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E122" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123">
@@ -5594,10 +5612,10 @@
         <v>37</v>
       </c>
       <c r="D123" t="s" s="2">
-        <v>92</v>
+        <v>300</v>
       </c>
       <c r="E123" t="s" s="2">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124">
@@ -5849,27 +5867,27 @@
         <v>37</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c r="E138" t="s" s="2">
-        <v>343</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D139" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="E139" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D139" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="E139" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="140">
@@ -5883,10 +5901,10 @@
         <v>37</v>
       </c>
       <c r="D140" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E140" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141">
@@ -5900,10 +5918,10 @@
         <v>37</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E141" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142">
@@ -5917,10 +5935,10 @@
         <v>37</v>
       </c>
       <c r="D142" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E142" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143">
@@ -5934,27 +5952,27 @@
         <v>37</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E143" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D144" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="E144" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D144" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="E144" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="145">
@@ -5968,10 +5986,10 @@
         <v>37</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E145" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="146">
@@ -5985,10 +6003,10 @@
         <v>37</v>
       </c>
       <c r="D146" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E146" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="147">
@@ -6002,10 +6020,10 @@
         <v>37</v>
       </c>
       <c r="D147" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E147" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="148">
@@ -6019,10 +6037,10 @@
         <v>37</v>
       </c>
       <c r="D148" t="s" s="2">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="E148" t="s" s="2">
-        <v>113</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149">
@@ -6206,27 +6224,27 @@
         <v>37</v>
       </c>
       <c r="D159" t="s" s="2">
-        <v>388</v>
+        <v>112</v>
       </c>
       <c r="E159" t="s" s="2">
-        <v>389</v>
+        <v>113</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D160" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="E160" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D160" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="E160" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="161">
@@ -6240,10 +6258,10 @@
         <v>37</v>
       </c>
       <c r="D161" t="s" s="2">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="E161" t="s" s="2">
-        <v>113</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162">
@@ -6257,10 +6275,10 @@
         <v>37</v>
       </c>
       <c r="D162" t="s" s="2">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="E162" t="s" s="2">
-        <v>229</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163">
@@ -6274,27 +6292,27 @@
         <v>37</v>
       </c>
       <c r="D163" t="s" s="2">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="E163" t="s" s="2">
-        <v>399</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D164" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="E164" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="C164" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D164" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="E164" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="165">
@@ -6308,27 +6326,27 @@
         <v>37</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E165" t="s" s="2">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D166" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="E166" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="C166" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D166" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="E166" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="167">
@@ -6342,10 +6360,10 @@
         <v>37</v>
       </c>
       <c r="D167" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E167" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="168">
@@ -6359,10 +6377,10 @@
         <v>37</v>
       </c>
       <c r="D168" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E168" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="169">
@@ -6376,10 +6394,10 @@
         <v>37</v>
       </c>
       <c r="D169" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E169" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="170">
@@ -6393,10 +6411,10 @@
         <v>37</v>
       </c>
       <c r="D170" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E170" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="171">
@@ -6410,10 +6428,10 @@
         <v>37</v>
       </c>
       <c r="D171" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E171" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="172">
@@ -6427,10 +6445,10 @@
         <v>37</v>
       </c>
       <c r="D172" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E172" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="173">
@@ -6444,10 +6462,10 @@
         <v>37</v>
       </c>
       <c r="D173" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E173" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="174">
@@ -6461,10 +6479,10 @@
         <v>37</v>
       </c>
       <c r="D174" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E174" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="175">
@@ -6478,10 +6496,10 @@
         <v>37</v>
       </c>
       <c r="D175" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E175" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="176">
@@ -6495,10 +6513,10 @@
         <v>37</v>
       </c>
       <c r="D176" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E176" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="177">
@@ -6512,10 +6530,10 @@
         <v>37</v>
       </c>
       <c r="D177" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E177" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178">
@@ -6529,10 +6547,10 @@
         <v>37</v>
       </c>
       <c r="D178" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E178" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="179">
@@ -6546,10 +6564,10 @@
         <v>37</v>
       </c>
       <c r="D179" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E179" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="180">
@@ -6563,10 +6581,10 @@
         <v>37</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E180" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181">
@@ -6580,10 +6598,10 @@
         <v>37</v>
       </c>
       <c r="D181" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E181" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="182">
@@ -6597,10 +6615,10 @@
         <v>37</v>
       </c>
       <c r="D182" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E182" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="183">
@@ -6614,10 +6632,10 @@
         <v>37</v>
       </c>
       <c r="D183" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E183" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="184">
@@ -6631,10 +6649,10 @@
         <v>37</v>
       </c>
       <c r="D184" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E184" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="185">
@@ -6648,10 +6666,10 @@
         <v>37</v>
       </c>
       <c r="D185" t="s" s="2">
-        <v>266</v>
+        <v>400</v>
       </c>
       <c r="E185" t="s" s="2">
-        <v>267</v>
+        <v>401</v>
       </c>
     </row>
     <row r="186">
@@ -6665,10 +6683,10 @@
         <v>37</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E186" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="187">
@@ -6682,10 +6700,10 @@
         <v>37</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>398</v>
+        <v>266</v>
       </c>
       <c r="E187" t="s" s="2">
-        <v>399</v>
+        <v>267</v>
       </c>
     </row>
     <row r="188">
@@ -6699,10 +6717,10 @@
         <v>37</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E188" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="189">
@@ -6716,10 +6734,10 @@
         <v>37</v>
       </c>
       <c r="D189" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E189" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="190">
@@ -6733,10 +6751,10 @@
         <v>37</v>
       </c>
       <c r="D190" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E190" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="191">
@@ -6750,10 +6768,10 @@
         <v>37</v>
       </c>
       <c r="D191" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E191" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="192">
@@ -6767,10 +6785,10 @@
         <v>37</v>
       </c>
       <c r="D192" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E192" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="193">
@@ -6784,10 +6802,10 @@
         <v>37</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E193" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="194">
@@ -6801,10 +6819,10 @@
         <v>37</v>
       </c>
       <c r="D194" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E194" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="195">
@@ -6818,10 +6836,10 @@
         <v>37</v>
       </c>
       <c r="D195" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E195" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="196">
@@ -6835,10 +6853,10 @@
         <v>37</v>
       </c>
       <c r="D196" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E196" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="197">
@@ -6852,10 +6870,10 @@
         <v>37</v>
       </c>
       <c r="D197" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E197" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198">
@@ -6869,10 +6887,10 @@
         <v>37</v>
       </c>
       <c r="D198" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E198" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="199">
@@ -6886,10 +6904,10 @@
         <v>37</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E199" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="200">
@@ -6903,10 +6921,10 @@
         <v>37</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E200" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="201">
@@ -6920,10 +6938,10 @@
         <v>37</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E201" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="202">
@@ -6937,10 +6955,10 @@
         <v>37</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E202" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203">
@@ -6954,10 +6972,10 @@
         <v>37</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E203" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204">
@@ -6971,10 +6989,10 @@
         <v>37</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E204" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="205">
@@ -6988,10 +7006,10 @@
         <v>37</v>
       </c>
       <c r="D205" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E205" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="206">
@@ -7005,10 +7023,10 @@
         <v>37</v>
       </c>
       <c r="D206" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E206" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="207">
@@ -7022,10 +7040,10 @@
         <v>37</v>
       </c>
       <c r="D207" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E207" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208">
@@ -7039,10 +7057,10 @@
         <v>37</v>
       </c>
       <c r="D208" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E208" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209">
@@ -7056,10 +7074,10 @@
         <v>37</v>
       </c>
       <c r="D209" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E209" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="210">
@@ -7073,10 +7091,10 @@
         <v>37</v>
       </c>
       <c r="D210" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E210" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="211">
@@ -7090,10 +7108,10 @@
         <v>37</v>
       </c>
       <c r="D211" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E211" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="212">
@@ -7107,10 +7125,10 @@
         <v>37</v>
       </c>
       <c r="D212" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E212" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="213">
@@ -7124,10 +7142,10 @@
         <v>37</v>
       </c>
       <c r="D213" t="s" s="2">
-        <v>56</v>
+        <v>400</v>
       </c>
       <c r="E213" t="s" s="2">
-        <v>57</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214">
@@ -7141,35 +7159,35 @@
         <v>37</v>
       </c>
       <c r="D214" t="s" s="2">
-        <v>504</v>
+        <v>400</v>
       </c>
       <c r="E214" t="s" s="2">
-        <v>505</v>
+        <v>401</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C215" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D215" t="s" s="2">
-        <v>508</v>
+        <v>56</v>
       </c>
       <c r="E215" t="s" s="2">
-        <v>509</v>
+        <v>57</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C216" t="s" s="2">
         <v>37</v>
@@ -7183,19 +7201,19 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D217" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="E217" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="C217" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D217" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="E217" t="s" s="2">
-        <v>505</v>
       </c>
     </row>
     <row r="218">
@@ -7209,10 +7227,10 @@
         <v>37</v>
       </c>
       <c r="D218" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E218" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="219">
@@ -7226,78 +7244,78 @@
         <v>37</v>
       </c>
       <c r="D219" t="s" s="2">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="E219" t="s" s="2">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C220" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D220" t="s" s="2">
-        <v>228</v>
+        <v>512</v>
       </c>
       <c r="E220" t="s" s="2">
-        <v>229</v>
+        <v>513</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D221" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="E221" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="C221" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D221" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="E221" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C222" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D222" t="s" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="E222" t="s" s="2">
-        <v>39</v>
+        <v>229</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D223" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="E223" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="C223" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D223" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="E223" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="224">
@@ -7311,10 +7329,10 @@
         <v>37</v>
       </c>
       <c r="D224" t="s" s="2">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="E224" t="s" s="2">
-        <v>229</v>
+        <v>39</v>
       </c>
     </row>
     <row r="225">
@@ -7328,10 +7346,10 @@
         <v>37</v>
       </c>
       <c r="D225" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="E225" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
     </row>
     <row r="226">
@@ -7345,10 +7363,10 @@
         <v>37</v>
       </c>
       <c r="D226" t="s" s="2">
-        <v>524</v>
+        <v>228</v>
       </c>
       <c r="E226" t="s" s="2">
-        <v>525</v>
+        <v>229</v>
       </c>
     </row>
     <row r="227">
@@ -7362,44 +7380,44 @@
         <v>37</v>
       </c>
       <c r="D227" t="s" s="2">
-        <v>538</v>
+        <v>76</v>
       </c>
       <c r="E227" t="s" s="2">
-        <v>539</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C228" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D228" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="E228" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D229" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="E229" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="C229" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D229" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="E229" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="230">
@@ -7413,10 +7431,10 @@
         <v>37</v>
       </c>
       <c r="D230" t="s" s="2">
-        <v>38</v>
+        <v>522</v>
       </c>
       <c r="E230" t="s" s="2">
-        <v>39</v>
+        <v>523</v>
       </c>
     </row>
     <row r="231">
@@ -7430,10 +7448,10 @@
         <v>37</v>
       </c>
       <c r="D231" t="s" s="2">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="E231" t="s" s="2">
-        <v>39</v>
+        <v>267</v>
       </c>
     </row>
     <row r="232">
@@ -7447,10 +7465,10 @@
         <v>37</v>
       </c>
       <c r="D232" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E232" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="233">
@@ -7464,10 +7482,10 @@
         <v>37</v>
       </c>
       <c r="D233" t="s" s="2">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="E233" t="s" s="2">
-        <v>229</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234">
@@ -7481,10 +7499,10 @@
         <v>37</v>
       </c>
       <c r="D234" t="s" s="2">
-        <v>538</v>
+        <v>76</v>
       </c>
       <c r="E234" t="s" s="2">
-        <v>539</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235">
@@ -7498,10 +7516,10 @@
         <v>37</v>
       </c>
       <c r="D235" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="E235" t="s" s="2">
-        <v>93</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236">
@@ -7515,10 +7533,10 @@
         <v>37</v>
       </c>
       <c r="D236" t="s" s="2">
-        <v>56</v>
+        <v>542</v>
       </c>
       <c r="E236" t="s" s="2">
-        <v>57</v>
+        <v>543</v>
       </c>
     </row>
     <row r="237">
@@ -7549,10 +7567,10 @@
         <v>37</v>
       </c>
       <c r="D238" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E238" t="s" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="239">
@@ -7583,10 +7601,10 @@
         <v>37</v>
       </c>
       <c r="D240" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E240" t="s" s="2">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="241">
@@ -7617,10 +7635,10 @@
         <v>37</v>
       </c>
       <c r="D242" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E242" t="s" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="243">
@@ -7651,10 +7669,10 @@
         <v>37</v>
       </c>
       <c r="D244" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E244" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
     </row>
     <row r="245">
@@ -7668,10 +7686,10 @@
         <v>37</v>
       </c>
       <c r="D245" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E245" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="246">
@@ -7685,61 +7703,61 @@
         <v>37</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>578</v>
+        <v>92</v>
       </c>
       <c r="E246" t="s" s="2">
-        <v>579</v>
+        <v>93</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C247" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D247" t="s" s="2">
-        <v>582</v>
+        <v>56</v>
       </c>
       <c r="E247" t="s" s="2">
-        <v>583</v>
+        <v>57</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D248" t="s" s="2">
-        <v>56</v>
+        <v>582</v>
       </c>
       <c r="E248" t="s" s="2">
-        <v>57</v>
+        <v>583</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D249" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="E249" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="C249" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D249" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="E249" t="s" s="2">
-        <v>57</v>
       </c>
     </row>
     <row r="250">
@@ -7821,10 +7839,10 @@
         <v>37</v>
       </c>
       <c r="D254" t="s" s="2">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="E254" t="s" s="2">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="255">
@@ -7855,10 +7873,10 @@
         <v>37</v>
       </c>
       <c r="D256" t="s" s="2">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="E256" t="s" s="2">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="257">
@@ -7889,10 +7907,10 @@
         <v>37</v>
       </c>
       <c r="D258" t="s" s="2">
-        <v>578</v>
+        <v>56</v>
       </c>
       <c r="E258" t="s" s="2">
-        <v>579</v>
+        <v>57</v>
       </c>
     </row>
     <row r="259">
@@ -7923,61 +7941,61 @@
         <v>37</v>
       </c>
       <c r="D260" t="s" s="2">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="E260" t="s" s="2">
-        <v>611</v>
+        <v>583</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C261" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D261" t="s" s="2">
-        <v>614</v>
+        <v>56</v>
       </c>
       <c r="E261" t="s" s="2">
-        <v>615</v>
+        <v>57</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C262" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D262" t="s" s="2">
-        <v>198</v>
+        <v>614</v>
       </c>
       <c r="E262" t="s" s="2">
-        <v>199</v>
+        <v>615</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B263" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D263" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="E263" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="C263" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D263" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="E263" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="264">
@@ -8059,10 +8077,10 @@
         <v>37</v>
       </c>
       <c r="D268" t="s" s="2">
-        <v>504</v>
+        <v>198</v>
       </c>
       <c r="E268" t="s" s="2">
-        <v>505</v>
+        <v>199</v>
       </c>
     </row>
     <row r="269">
@@ -8076,10 +8094,10 @@
         <v>37</v>
       </c>
       <c r="D269" t="s" s="2">
-        <v>504</v>
+        <v>198</v>
       </c>
       <c r="E269" t="s" s="2">
-        <v>505</v>
+        <v>199</v>
       </c>
     </row>
     <row r="270">
@@ -8093,10 +8111,10 @@
         <v>37</v>
       </c>
       <c r="D270" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E270" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="271">
@@ -8110,10 +8128,10 @@
         <v>37</v>
       </c>
       <c r="D271" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E271" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="272">
@@ -8127,10 +8145,10 @@
         <v>37</v>
       </c>
       <c r="D272" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E272" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="273">
@@ -8144,10 +8162,10 @@
         <v>37</v>
       </c>
       <c r="D273" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E273" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="274">
@@ -8161,10 +8179,10 @@
         <v>37</v>
       </c>
       <c r="D274" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E274" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="275">
@@ -8178,10 +8196,10 @@
         <v>37</v>
       </c>
       <c r="D275" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E275" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="276">
@@ -8195,10 +8213,10 @@
         <v>37</v>
       </c>
       <c r="D276" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E276" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="277">
@@ -8212,10 +8230,10 @@
         <v>37</v>
       </c>
       <c r="D277" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E277" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="278">
@@ -8229,44 +8247,44 @@
         <v>37</v>
       </c>
       <c r="D278" t="s" s="2">
-        <v>650</v>
+        <v>508</v>
       </c>
       <c r="E278" t="s" s="2">
-        <v>651</v>
+        <v>509</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C279" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D279" t="s" s="2">
-        <v>650</v>
+        <v>508</v>
       </c>
       <c r="E279" t="s" s="2">
-        <v>651</v>
+        <v>509</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B280" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C280" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D280" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="E280" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="C280" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D280" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="E280" t="s" s="2">
-        <v>651</v>
       </c>
     </row>
     <row r="281">
@@ -8280,44 +8298,44 @@
         <v>37</v>
       </c>
       <c r="D281" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E281" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C282" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D282" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E282" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C283" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D283" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="E283" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="C283" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D283" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="E283" t="s" s="2">
-        <v>659</v>
       </c>
     </row>
     <row r="284">
@@ -8331,10 +8349,10 @@
         <v>37</v>
       </c>
       <c r="D284" t="s" s="2">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E284" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="285">
@@ -8348,10 +8366,10 @@
         <v>37</v>
       </c>
       <c r="D285" t="s" s="2">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E285" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="286">
@@ -8365,10 +8383,10 @@
         <v>37</v>
       </c>
       <c r="D286" t="s" s="2">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E286" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="287">
@@ -8382,10 +8400,10 @@
         <v>37</v>
       </c>
       <c r="D287" t="s" s="2">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E287" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="288">
@@ -8399,10 +8417,10 @@
         <v>37</v>
       </c>
       <c r="D288" t="s" s="2">
-        <v>266</v>
+        <v>662</v>
       </c>
       <c r="E288" t="s" s="2">
-        <v>267</v>
+        <v>663</v>
       </c>
     </row>
     <row r="289">
@@ -8416,10 +8434,10 @@
         <v>37</v>
       </c>
       <c r="D289" t="s" s="2">
-        <v>266</v>
+        <v>662</v>
       </c>
       <c r="E289" t="s" s="2">
-        <v>267</v>
+        <v>663</v>
       </c>
     </row>
     <row r="290">
@@ -8552,10 +8570,10 @@
         <v>37</v>
       </c>
       <c r="D297" t="s" s="2">
-        <v>398</v>
+        <v>266</v>
       </c>
       <c r="E297" t="s" s="2">
-        <v>399</v>
+        <v>267</v>
       </c>
     </row>
     <row r="298">
@@ -8586,10 +8604,10 @@
         <v>37</v>
       </c>
       <c r="D299" t="s" s="2">
-        <v>266</v>
+        <v>400</v>
       </c>
       <c r="E299" t="s" s="2">
-        <v>267</v>
+        <v>401</v>
       </c>
     </row>
     <row r="300">
@@ -8620,10 +8638,10 @@
         <v>37</v>
       </c>
       <c r="D301" t="s" s="2">
-        <v>538</v>
+        <v>266</v>
       </c>
       <c r="E301" t="s" s="2">
-        <v>539</v>
+        <v>267</v>
       </c>
     </row>
     <row r="302">
@@ -8637,10 +8655,10 @@
         <v>37</v>
       </c>
       <c r="D302" t="s" s="2">
-        <v>398</v>
+        <v>266</v>
       </c>
       <c r="E302" t="s" s="2">
-        <v>399</v>
+        <v>267</v>
       </c>
     </row>
     <row r="303">
@@ -8648,50 +8666,50 @@
         <v>702</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>397</v>
+        <v>703</v>
       </c>
       <c r="C303" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D303" t="s" s="2">
-        <v>398</v>
+        <v>542</v>
       </c>
       <c r="E303" t="s" s="2">
-        <v>399</v>
+        <v>543</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C304" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D304" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E304" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>706</v>
+        <v>399</v>
       </c>
       <c r="C305" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D305" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E305" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="306">
@@ -8705,10 +8723,10 @@
         <v>37</v>
       </c>
       <c r="D306" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E306" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="307">
@@ -8722,10 +8740,10 @@
         <v>37</v>
       </c>
       <c r="D307" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E307" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="308">
@@ -8739,10 +8757,10 @@
         <v>37</v>
       </c>
       <c r="D308" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E308" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="309">
@@ -8756,10 +8774,10 @@
         <v>37</v>
       </c>
       <c r="D309" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E309" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="310">
@@ -8773,44 +8791,44 @@
         <v>37</v>
       </c>
       <c r="D310" t="s" s="2">
-        <v>717</v>
+        <v>400</v>
       </c>
       <c r="E310" t="s" s="2">
-        <v>718</v>
+        <v>401</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C311" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D311" t="s" s="2">
-        <v>717</v>
+        <v>400</v>
       </c>
       <c r="E311" t="s" s="2">
-        <v>718</v>
+        <v>401</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="B312" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="C312" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D312" t="s" s="2">
         <v>721</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="E312" t="s" s="2">
         <v>722</v>
-      </c>
-      <c r="C312" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D312" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="E312" t="s" s="2">
-        <v>718</v>
       </c>
     </row>
     <row r="313">
@@ -8824,10 +8842,10 @@
         <v>37</v>
       </c>
       <c r="D313" t="s" s="2">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E313" t="s" s="2">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="314">
@@ -8841,10 +8859,10 @@
         <v>37</v>
       </c>
       <c r="D314" t="s" s="2">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E314" t="s" s="2">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="315">
@@ -8858,10 +8876,10 @@
         <v>37</v>
       </c>
       <c r="D315" t="s" s="2">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E315" t="s" s="2">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="316">
@@ -8875,10 +8893,10 @@
         <v>37</v>
       </c>
       <c r="D316" t="s" s="2">
-        <v>518</v>
+        <v>721</v>
       </c>
       <c r="E316" t="s" s="2">
-        <v>519</v>
+        <v>722</v>
       </c>
     </row>
     <row r="317">
@@ -8892,10 +8910,10 @@
         <v>37</v>
       </c>
       <c r="D317" t="s" s="2">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E317" t="s" s="2">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="318">
@@ -8909,10 +8927,10 @@
         <v>37</v>
       </c>
       <c r="D318" t="s" s="2">
-        <v>354</v>
+        <v>522</v>
       </c>
       <c r="E318" t="s" s="2">
-        <v>355</v>
+        <v>523</v>
       </c>
     </row>
     <row r="319">
@@ -8926,10 +8944,10 @@
         <v>37</v>
       </c>
       <c r="D319" t="s" s="2">
-        <v>88</v>
+        <v>721</v>
       </c>
       <c r="E319" t="s" s="2">
-        <v>89</v>
+        <v>722</v>
       </c>
     </row>
     <row r="320">
@@ -8943,10 +8961,10 @@
         <v>37</v>
       </c>
       <c r="D320" t="s" s="2">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="E320" t="s" s="2">
-        <v>93</v>
+        <v>357</v>
       </c>
     </row>
     <row r="321">
@@ -8960,10 +8978,10 @@
         <v>37</v>
       </c>
       <c r="D321" t="s" s="2">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="E321" t="s" s="2">
-        <v>203</v>
+        <v>89</v>
       </c>
     </row>
     <row r="322">
@@ -8994,10 +9012,10 @@
         <v>37</v>
       </c>
       <c r="D323" t="s" s="2">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="E323" t="s" s="2">
-        <v>133</v>
+        <v>203</v>
       </c>
     </row>
     <row r="324">
@@ -9011,10 +9029,10 @@
         <v>37</v>
       </c>
       <c r="D324" t="s" s="2">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="E324" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="325">
@@ -9022,7 +9040,7 @@
         <v>747</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>131</v>
+        <v>748</v>
       </c>
       <c r="C325" t="s" s="2">
         <v>37</v>
@@ -9036,10 +9054,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C326" t="s" s="2">
         <v>37</v>
@@ -9053,10 +9071,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>751</v>
+        <v>131</v>
       </c>
       <c r="C327" t="s" s="2">
         <v>37</v>
@@ -9079,10 +9097,10 @@
         <v>37</v>
       </c>
       <c r="D328" t="s" s="2">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="E328" t="s" s="2">
-        <v>229</v>
+        <v>133</v>
       </c>
     </row>
     <row r="329">
@@ -9096,10 +9114,10 @@
         <v>37</v>
       </c>
       <c r="D329" t="s" s="2">
-        <v>518</v>
+        <v>132</v>
       </c>
       <c r="E329" t="s" s="2">
-        <v>519</v>
+        <v>133</v>
       </c>
     </row>
     <row r="330">
@@ -9113,10 +9131,10 @@
         <v>37</v>
       </c>
       <c r="D330" t="s" s="2">
-        <v>518</v>
+        <v>228</v>
       </c>
       <c r="E330" t="s" s="2">
-        <v>519</v>
+        <v>229</v>
       </c>
     </row>
     <row r="331">
@@ -9130,10 +9148,10 @@
         <v>37</v>
       </c>
       <c r="D331" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E331" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="332">
@@ -9147,10 +9165,10 @@
         <v>37</v>
       </c>
       <c r="D332" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E332" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="333">
@@ -9164,10 +9182,10 @@
         <v>37</v>
       </c>
       <c r="D333" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E333" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="334">
@@ -9181,10 +9199,10 @@
         <v>37</v>
       </c>
       <c r="D334" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E334" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="335">
@@ -9198,44 +9216,44 @@
         <v>37</v>
       </c>
       <c r="D335" t="s" s="2">
-        <v>768</v>
+        <v>522</v>
       </c>
       <c r="E335" t="s" s="2">
-        <v>769</v>
+        <v>523</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C336" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D336" t="s" s="2">
-        <v>212</v>
+        <v>522</v>
       </c>
       <c r="E336" t="s" s="2">
-        <v>213</v>
+        <v>523</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="B337" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="C337" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D337" t="s" s="2">
         <v>772</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="E337" t="s" s="2">
         <v>773</v>
-      </c>
-      <c r="C337" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D337" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="E337" t="s" s="2">
-        <v>57</v>
       </c>
     </row>
     <row r="338">
@@ -9249,10 +9267,10 @@
         <v>37</v>
       </c>
       <c r="D338" t="s" s="2">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E338" t="s" s="2">
-        <v>57</v>
+        <v>213</v>
       </c>
     </row>
     <row r="339">
@@ -9266,10 +9284,10 @@
         <v>37</v>
       </c>
       <c r="D339" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E339" t="s" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="340">
@@ -9283,10 +9301,10 @@
         <v>37</v>
       </c>
       <c r="D340" t="s" s="2">
-        <v>518</v>
+        <v>56</v>
       </c>
       <c r="E340" t="s" s="2">
-        <v>519</v>
+        <v>57</v>
       </c>
     </row>
     <row r="341">
@@ -9300,44 +9318,44 @@
         <v>37</v>
       </c>
       <c r="D341" t="s" s="2">
-        <v>782</v>
+        <v>38</v>
       </c>
       <c r="E341" t="s" s="2">
-        <v>783</v>
+        <v>39</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C342" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D342" t="s" s="2">
-        <v>782</v>
+        <v>522</v>
       </c>
       <c r="E342" t="s" s="2">
-        <v>783</v>
+        <v>523</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="B343" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="C343" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D343" t="s" s="2">
         <v>786</v>
       </c>
-      <c r="B343" t="s" s="2">
+      <c r="E343" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="C343" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D343" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="E343" t="s" s="2">
-        <v>783</v>
       </c>
     </row>
     <row r="344">
@@ -9351,10 +9369,10 @@
         <v>37</v>
       </c>
       <c r="D344" t="s" s="2">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E344" t="s" s="2">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="345">
@@ -9368,10 +9386,10 @@
         <v>37</v>
       </c>
       <c r="D345" t="s" s="2">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E345" t="s" s="2">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="346">
@@ -9385,10 +9403,10 @@
         <v>37</v>
       </c>
       <c r="D346" t="s" s="2">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E346" t="s" s="2">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="347">
@@ -9402,10 +9420,10 @@
         <v>37</v>
       </c>
       <c r="D347" t="s" s="2">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E347" t="s" s="2">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="348">
@@ -9419,10 +9437,10 @@
         <v>37</v>
       </c>
       <c r="D348" t="s" s="2">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E348" t="s" s="2">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="349">
@@ -9436,10 +9454,10 @@
         <v>37</v>
       </c>
       <c r="D349" t="s" s="2">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E349" t="s" s="2">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="350">
@@ -9453,44 +9471,44 @@
         <v>37</v>
       </c>
       <c r="D350" t="s" s="2">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="E350" t="s" s="2">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C351" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D351" t="s" s="2">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="E351" t="s" s="2">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="B352" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="C352" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D352" t="s" s="2">
         <v>806</v>
       </c>
-      <c r="B352" t="s" s="2">
+      <c r="E352" t="s" s="2">
         <v>807</v>
-      </c>
-      <c r="C352" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D352" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="E352" t="s" s="2">
-        <v>803</v>
       </c>
     </row>
     <row r="353">
@@ -9504,10 +9522,10 @@
         <v>37</v>
       </c>
       <c r="D353" t="s" s="2">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E353" t="s" s="2">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="354">
@@ -9521,10 +9539,10 @@
         <v>37</v>
       </c>
       <c r="D354" t="s" s="2">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E354" t="s" s="2">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="355">
@@ -9538,10 +9556,10 @@
         <v>37</v>
       </c>
       <c r="D355" t="s" s="2">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E355" t="s" s="2">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="356">
@@ -9555,10 +9573,10 @@
         <v>37</v>
       </c>
       <c r="D356" t="s" s="2">
-        <v>518</v>
+        <v>806</v>
       </c>
       <c r="E356" t="s" s="2">
-        <v>519</v>
+        <v>807</v>
       </c>
     </row>
     <row r="357">
@@ -9572,10 +9590,10 @@
         <v>37</v>
       </c>
       <c r="D357" t="s" s="2">
-        <v>518</v>
+        <v>806</v>
       </c>
       <c r="E357" t="s" s="2">
-        <v>519</v>
+        <v>807</v>
       </c>
     </row>
     <row r="358">
@@ -9589,10 +9607,10 @@
         <v>37</v>
       </c>
       <c r="D358" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E358" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="359">
@@ -9606,10 +9624,10 @@
         <v>37</v>
       </c>
       <c r="D359" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E359" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="360">
@@ -9623,10 +9641,10 @@
         <v>37</v>
       </c>
       <c r="D360" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E360" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="361">
@@ -9640,10 +9658,10 @@
         <v>37</v>
       </c>
       <c r="D361" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E361" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="362">
@@ -9657,10 +9675,10 @@
         <v>37</v>
       </c>
       <c r="D362" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E362" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="363">
@@ -9674,10 +9692,10 @@
         <v>37</v>
       </c>
       <c r="D363" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E363" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="364">
@@ -9691,10 +9709,10 @@
         <v>37</v>
       </c>
       <c r="D364" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E364" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="365">
@@ -9708,10 +9726,10 @@
         <v>37</v>
       </c>
       <c r="D365" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E365" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="366">
@@ -9725,10 +9743,10 @@
         <v>37</v>
       </c>
       <c r="D366" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E366" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="367">
@@ -9742,10 +9760,10 @@
         <v>37</v>
       </c>
       <c r="D367" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E367" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="368">
@@ -9759,10 +9777,10 @@
         <v>37</v>
       </c>
       <c r="D368" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E368" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="369">
@@ -9776,10 +9794,10 @@
         <v>37</v>
       </c>
       <c r="D369" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E369" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="370">
@@ -9793,10 +9811,10 @@
         <v>37</v>
       </c>
       <c r="D370" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E370" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="371">
@@ -9810,10 +9828,10 @@
         <v>37</v>
       </c>
       <c r="D371" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E371" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="372">
@@ -9827,10 +9845,10 @@
         <v>37</v>
       </c>
       <c r="D372" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E372" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="373">
@@ -9844,10 +9862,10 @@
         <v>37</v>
       </c>
       <c r="D373" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E373" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="374">
@@ -9861,10 +9879,10 @@
         <v>37</v>
       </c>
       <c r="D374" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E374" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="375">
@@ -9878,10 +9896,10 @@
         <v>37</v>
       </c>
       <c r="D375" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="E375" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="376">
@@ -9895,10 +9913,10 @@
         <v>37</v>
       </c>
       <c r="D376" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E376" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="377">
@@ -9912,10 +9930,10 @@
         <v>37</v>
       </c>
       <c r="D377" t="s" s="2">
-        <v>282</v>
+        <v>522</v>
       </c>
       <c r="E377" t="s" s="2">
-        <v>283</v>
+        <v>523</v>
       </c>
     </row>
     <row r="378">
@@ -9929,10 +9947,10 @@
         <v>37</v>
       </c>
       <c r="D378" t="s" s="2">
-        <v>582</v>
+        <v>528</v>
       </c>
       <c r="E378" t="s" s="2">
-        <v>583</v>
+        <v>529</v>
       </c>
     </row>
     <row r="379">
@@ -9946,10 +9964,10 @@
         <v>37</v>
       </c>
       <c r="D379" t="s" s="2">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="E379" t="s" s="2">
-        <v>583</v>
+        <v>285</v>
       </c>
     </row>
     <row r="380">
@@ -9963,10 +9981,10 @@
         <v>37</v>
       </c>
       <c r="D380" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E380" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="381">
@@ -9980,10 +9998,10 @@
         <v>37</v>
       </c>
       <c r="D381" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E381" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="382">
@@ -9997,10 +10015,10 @@
         <v>37</v>
       </c>
       <c r="D382" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E382" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="383">
@@ -10014,10 +10032,10 @@
         <v>37</v>
       </c>
       <c r="D383" t="s" s="2">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="E383" t="s" s="2">
-        <v>519</v>
+        <v>587</v>
       </c>
     </row>
     <row r="384">
@@ -10031,10 +10049,10 @@
         <v>37</v>
       </c>
       <c r="D384" t="s" s="2">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="E384" t="s" s="2">
-        <v>519</v>
+        <v>587</v>
       </c>
     </row>
     <row r="385">
@@ -10048,10 +10066,10 @@
         <v>37</v>
       </c>
       <c r="D385" t="s" s="2">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="E385" t="s" s="2">
-        <v>149</v>
+        <v>523</v>
       </c>
     </row>
     <row r="386">
@@ -10065,10 +10083,10 @@
         <v>37</v>
       </c>
       <c r="D386" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E386" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="387">
@@ -10082,10 +10100,10 @@
         <v>37</v>
       </c>
       <c r="D387" t="s" s="2">
-        <v>398</v>
+        <v>148</v>
       </c>
       <c r="E387" t="s" s="2">
-        <v>399</v>
+        <v>149</v>
       </c>
     </row>
     <row r="388">
@@ -10099,10 +10117,10 @@
         <v>37</v>
       </c>
       <c r="D388" t="s" s="2">
-        <v>398</v>
+        <v>542</v>
       </c>
       <c r="E388" t="s" s="2">
-        <v>399</v>
+        <v>543</v>
       </c>
     </row>
     <row r="389">
@@ -10116,10 +10134,10 @@
         <v>37</v>
       </c>
       <c r="D389" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E389" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="390">
@@ -10133,10 +10151,10 @@
         <v>37</v>
       </c>
       <c r="D390" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E390" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="391">
@@ -10150,10 +10168,10 @@
         <v>37</v>
       </c>
       <c r="D391" t="s" s="2">
-        <v>768</v>
+        <v>400</v>
       </c>
       <c r="E391" t="s" s="2">
-        <v>769</v>
+        <v>401</v>
       </c>
     </row>
     <row r="392">
@@ -10167,10 +10185,10 @@
         <v>37</v>
       </c>
       <c r="D392" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E392" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="393">
@@ -10184,10 +10202,10 @@
         <v>37</v>
       </c>
       <c r="D393" t="s" s="2">
-        <v>398</v>
+        <v>772</v>
       </c>
       <c r="E393" t="s" s="2">
-        <v>399</v>
+        <v>773</v>
       </c>
     </row>
     <row r="394">
@@ -10201,10 +10219,10 @@
         <v>37</v>
       </c>
       <c r="D394" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E394" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="395">
@@ -10218,10 +10236,10 @@
         <v>37</v>
       </c>
       <c r="D395" t="s" s="2">
-        <v>524</v>
+        <v>400</v>
       </c>
       <c r="E395" t="s" s="2">
-        <v>525</v>
+        <v>401</v>
       </c>
     </row>
     <row r="396">
@@ -10235,10 +10253,10 @@
         <v>37</v>
       </c>
       <c r="D396" t="s" s="2">
-        <v>524</v>
+        <v>300</v>
       </c>
       <c r="E396" t="s" s="2">
-        <v>525</v>
+        <v>301</v>
       </c>
     </row>
     <row r="397">
@@ -10252,10 +10270,10 @@
         <v>37</v>
       </c>
       <c r="D397" t="s" s="2">
-        <v>524</v>
+        <v>400</v>
       </c>
       <c r="E397" t="s" s="2">
-        <v>525</v>
+        <v>401</v>
       </c>
     </row>
     <row r="398">
@@ -10269,10 +10287,10 @@
         <v>37</v>
       </c>
       <c r="D398" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E398" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="399">
@@ -10286,10 +10304,10 @@
         <v>37</v>
       </c>
       <c r="D399" t="s" s="2">
-        <v>120</v>
+        <v>528</v>
       </c>
       <c r="E399" t="s" s="2">
-        <v>121</v>
+        <v>529</v>
       </c>
     </row>
     <row r="400">
@@ -10303,10 +10321,10 @@
         <v>37</v>
       </c>
       <c r="D400" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E400" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="401">
@@ -10320,10 +10338,10 @@
         <v>37</v>
       </c>
       <c r="D401" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E401" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="402">
@@ -10337,10 +10355,10 @@
         <v>37</v>
       </c>
       <c r="D402" t="s" s="2">
-        <v>524</v>
+        <v>120</v>
       </c>
       <c r="E402" t="s" s="2">
-        <v>525</v>
+        <v>121</v>
       </c>
     </row>
     <row r="403">
@@ -10354,10 +10372,10 @@
         <v>37</v>
       </c>
       <c r="D403" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E403" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="404">
@@ -10371,10 +10389,10 @@
         <v>37</v>
       </c>
       <c r="D404" t="s" s="2">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="E404" t="s" s="2">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="405">
@@ -10388,10 +10406,10 @@
         <v>37</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E405" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="406">
@@ -10405,10 +10423,10 @@
         <v>37</v>
       </c>
       <c r="D406" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="E406" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="407">
@@ -10422,10 +10440,10 @@
         <v>37</v>
       </c>
       <c r="D407" t="s" s="2">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E407" t="s" s="2">
-        <v>519</v>
+        <v>543</v>
       </c>
     </row>
     <row r="408">
@@ -10439,10 +10457,10 @@
         <v>37</v>
       </c>
       <c r="D408" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="E408" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="409">
@@ -10456,10 +10474,10 @@
         <v>37</v>
       </c>
       <c r="D409" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E409" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="410">
@@ -10473,10 +10491,10 @@
         <v>37</v>
       </c>
       <c r="D410" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E410" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="411">
@@ -10490,10 +10508,10 @@
         <v>37</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E411" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="412">
@@ -10507,10 +10525,10 @@
         <v>37</v>
       </c>
       <c r="D412" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E412" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="413">
@@ -10524,10 +10542,10 @@
         <v>37</v>
       </c>
       <c r="D413" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E413" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="414">
@@ -10541,10 +10559,10 @@
         <v>37</v>
       </c>
       <c r="D414" t="s" s="2">
-        <v>56</v>
+        <v>542</v>
       </c>
       <c r="E414" t="s" s="2">
-        <v>57</v>
+        <v>543</v>
       </c>
     </row>
     <row r="415">
@@ -10558,10 +10576,10 @@
         <v>37</v>
       </c>
       <c r="D415" t="s" s="2">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E415" t="s" s="2">
-        <v>519</v>
+        <v>543</v>
       </c>
     </row>
     <row r="416">
@@ -10575,10 +10593,10 @@
         <v>37</v>
       </c>
       <c r="D416" t="s" s="2">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E416" t="s" s="2">
-        <v>519</v>
+        <v>543</v>
       </c>
     </row>
     <row r="417">
@@ -10592,10 +10610,10 @@
         <v>37</v>
       </c>
       <c r="D417" t="s" s="2">
-        <v>538</v>
+        <v>56</v>
       </c>
       <c r="E417" t="s" s="2">
-        <v>539</v>
+        <v>57</v>
       </c>
     </row>
     <row r="418">
@@ -10609,10 +10627,10 @@
         <v>37</v>
       </c>
       <c r="D418" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E418" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="419">
@@ -10626,10 +10644,10 @@
         <v>37</v>
       </c>
       <c r="D419" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E419" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="420">
@@ -10643,10 +10661,10 @@
         <v>37</v>
       </c>
       <c r="D420" t="s" s="2">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E420" t="s" s="2">
-        <v>519</v>
+        <v>543</v>
       </c>
     </row>
     <row r="421">
@@ -10660,10 +10678,10 @@
         <v>37</v>
       </c>
       <c r="D421" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E421" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="422">
@@ -10677,10 +10695,10 @@
         <v>37</v>
       </c>
       <c r="D422" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E422" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="423">
@@ -10694,10 +10712,10 @@
         <v>37</v>
       </c>
       <c r="D423" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E423" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="424">
@@ -10711,10 +10729,10 @@
         <v>37</v>
       </c>
       <c r="D424" t="s" s="2">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E424" t="s" s="2">
-        <v>519</v>
+        <v>543</v>
       </c>
     </row>
     <row r="425">
@@ -10728,10 +10746,10 @@
         <v>37</v>
       </c>
       <c r="D425" t="s" s="2">
-        <v>768</v>
+        <v>522</v>
       </c>
       <c r="E425" t="s" s="2">
-        <v>769</v>
+        <v>523</v>
       </c>
     </row>
     <row r="426">
@@ -10745,10 +10763,10 @@
         <v>37</v>
       </c>
       <c r="D426" t="s" s="2">
-        <v>768</v>
+        <v>522</v>
       </c>
       <c r="E426" t="s" s="2">
-        <v>769</v>
+        <v>523</v>
       </c>
     </row>
     <row r="427">
@@ -10762,10 +10780,10 @@
         <v>37</v>
       </c>
       <c r="D427" t="s" s="2">
-        <v>768</v>
+        <v>522</v>
       </c>
       <c r="E427" t="s" s="2">
-        <v>769</v>
+        <v>523</v>
       </c>
     </row>
     <row r="428">
@@ -10779,10 +10797,10 @@
         <v>37</v>
       </c>
       <c r="D428" t="s" s="2">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E428" t="s" s="2">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="429">
@@ -10796,10 +10814,10 @@
         <v>37</v>
       </c>
       <c r="D429" t="s" s="2">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E429" t="s" s="2">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="430">
@@ -10813,10 +10831,10 @@
         <v>37</v>
       </c>
       <c r="D430" t="s" s="2">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E430" t="s" s="2">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="431">
@@ -10830,10 +10848,10 @@
         <v>37</v>
       </c>
       <c r="D431" t="s" s="2">
-        <v>38</v>
+        <v>772</v>
       </c>
       <c r="E431" t="s" s="2">
-        <v>39</v>
+        <v>773</v>
       </c>
     </row>
     <row r="432">
@@ -10847,10 +10865,10 @@
         <v>37</v>
       </c>
       <c r="D432" t="s" s="2">
-        <v>538</v>
+        <v>772</v>
       </c>
       <c r="E432" t="s" s="2">
-        <v>539</v>
+        <v>773</v>
       </c>
     </row>
     <row r="433">
@@ -10858,101 +10876,101 @@
         <v>968</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>746</v>
+        <v>969</v>
       </c>
       <c r="C433" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D433" t="s" s="2">
-        <v>132</v>
+        <v>772</v>
       </c>
       <c r="E433" t="s" s="2">
-        <v>133</v>
+        <v>773</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C434" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D434" t="s" s="2">
-        <v>538</v>
+        <v>38</v>
       </c>
       <c r="E434" t="s" s="2">
-        <v>539</v>
+        <v>39</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>537</v>
+        <v>973</v>
       </c>
       <c r="C435" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E435" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>973</v>
+        <v>750</v>
       </c>
       <c r="C436" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D436" t="s" s="2">
-        <v>538</v>
+        <v>132</v>
       </c>
       <c r="E436" t="s" s="2">
-        <v>539</v>
+        <v>133</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C437" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D437" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E437" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>977</v>
+        <v>541</v>
       </c>
       <c r="C438" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D438" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E438" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="439">
@@ -10966,10 +10984,10 @@
         <v>37</v>
       </c>
       <c r="D439" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E439" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="440">
@@ -10983,10 +11001,10 @@
         <v>37</v>
       </c>
       <c r="D440" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E440" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="441">
@@ -11000,10 +11018,10 @@
         <v>37</v>
       </c>
       <c r="D441" t="s" s="2">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E441" t="s" s="2">
-        <v>519</v>
+        <v>543</v>
       </c>
     </row>
     <row r="442">
@@ -11017,10 +11035,10 @@
         <v>37</v>
       </c>
       <c r="D442" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E442" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="443">
@@ -11034,10 +11052,10 @@
         <v>37</v>
       </c>
       <c r="D443" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E443" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="444">
@@ -11051,10 +11069,10 @@
         <v>37</v>
       </c>
       <c r="D444" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E444" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="445">
@@ -11068,10 +11086,10 @@
         <v>37</v>
       </c>
       <c r="D445" t="s" s="2">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="E445" t="s" s="2">
-        <v>509</v>
+        <v>543</v>
       </c>
     </row>
     <row r="446">
@@ -11085,10 +11103,10 @@
         <v>37</v>
       </c>
       <c r="D446" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E446" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="447">
@@ -11102,61 +11120,112 @@
         <v>37</v>
       </c>
       <c r="D447" t="s" s="2">
-        <v>996</v>
+        <v>542</v>
       </c>
       <c r="E447" t="s" s="2">
-        <v>997</v>
+        <v>543</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C448" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D448" t="s" s="2">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="E448" t="s" s="2">
-        <v>539</v>
+        <v>513</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C449" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D449" t="s" s="2">
-        <v>996</v>
+        <v>542</v>
       </c>
       <c r="E449" t="s" s="2">
-        <v>997</v>
+        <v>543</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B450" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C450" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D450" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="B450" t="s" s="2">
+      <c r="E450" t="s" s="2">
         <v>1003</v>
       </c>
-      <c r="C450" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D450" t="s" s="2">
-        <v>996</v>
-      </c>
-      <c r="E450" t="s" s="2">
-        <v>997</v>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B451" t="s" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C451" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D451" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="E451" t="s" s="2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B452" t="s" s="2">
+        <v>1007</v>
+      </c>
+      <c r="C452" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D452" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="E452" t="s" s="2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B453" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="C453" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D453" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="E453" t="s" s="2">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -11200,7 +11269,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>21</v>
@@ -11208,546 +11277,546 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>1019</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="2">
         <v>1013</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="E6" t="s" s="2">
         <v>1014</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>1007</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>1008</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
   </sheetData>
